--- a/Data/TDOC数据格式.xlsx
+++ b/Data/TDOC数据格式.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BL格式验证" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BL格式验证" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="blno_list">#REF!</definedName>

--- a/Data/TDOC数据格式.xlsx
+++ b/Data/TDOC数据格式.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BL格式验证" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BL格式验证" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="blno_list">#REF!</definedName>

--- a/Data/TDOC数据格式.xlsx
+++ b/Data/TDOC数据格式.xlsx
@@ -2353,7 +2353,7 @@
     <row r="12" ht="16.5" customFormat="1" customHeight="1" s="1">
       <c r="A12" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANX10L376SF66666TEST      96896WSEC      WUXIWUXI           WXEPWUXI      1              2                   3               BOOKNO  4      WX57787   LORRY                    H32131020220111        20220112C                </t>
+          <t xml:space="preserve">ANX10L376SF66666TEST      96896WSEC      WUXIWUXI           WXEPWUXI      wetwertweryerywwetwertweryerywerytwwetwertw        BOOKNO  wetwertWX57787   LORRY                    H32131020220111        20220112C                </t>
         </is>
       </c>
       <c r="B12" s="15">

--- a/Data/TDOC数据格式.xlsx
+++ b/Data/TDOC数据格式.xlsx
@@ -2353,7 +2353,7 @@
     <row r="12" ht="16.5" customFormat="1" customHeight="1" s="1">
       <c r="A12" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANX10L376SF66666TEST      96896WSEC      WUXIWUXI           WXEPWUXI      wetwertweryerywwetwertweryerywerytwwetwertw        BOOKNO  wetwertWX57787   LORRY                    H32131020220111        20220112C                </t>
+          <t xml:space="preserve">ANX10L376SF66666TEST      96896WSEC      WUXIWUXI           WXEPWUXI      3N2206141      821                 20220614        BOOKNO  A071310WX57787   LORRY                    H32131020220111        20220112C                </t>
         </is>
       </c>
       <c r="B12" s="15">

--- a/Data/TDOC数据格式.xlsx
+++ b/Data/TDOC数据格式.xlsx
@@ -2353,7 +2353,7 @@
     <row r="12" ht="16.5" customFormat="1" customHeight="1" s="1">
       <c r="A12" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANX10L376SF66666TEST      96896WSEC      WUXIWUXI           WXEPWUXI      3N2206141      821                 20220614        BOOKNO  A071310WX57787   LORRY                    H32131020220111        20220112C                </t>
+          <t xml:space="preserve">ANX10L376SF66666TEST      96896WSEC      WUXIWUXI           WXEPWUXI      1              2                   3               BOOKNO  4      WX57787   LORRY                    H32131020220111        20220112C                </t>
         </is>
       </c>
       <c r="B12" s="15">
